--- a/exercises/ex010.PVT.xlsx
+++ b/exercises/ex010.PVT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F5140-201A-49C8-AC15-6200B8C9AF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91A4E37-596B-4242-9E6A-8C522EE2E01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="112" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -452,8 +454,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -657,7 +659,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -705,7 +707,7 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -987,7 +989,7 @@
                   <c:v>23.217981207547599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.830173339018913</c:v>
+                  <c:v>37.83017333901892</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>53.489011266547386</c:v>
@@ -1610,82 +1612,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.0376399914230205</c:v>
+                  <c:v>1.0378096051911541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0403048627533211</c:v>
+                  <c:v>1.040471342938323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0443981738928323</c:v>
+                  <c:v>1.0445596544735256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0539767147414263</c:v>
+                  <c:v>1.0541257424000623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0767454604846787</c:v>
+                  <c:v>1.0768617493504566</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1030496093855067</c:v>
+                  <c:v>1.1031244173328194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1322091794660498</c:v>
+                  <c:v>1.1322350702659287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1638439565928362</c:v>
+                  <c:v>1.1638144320400581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1807028368114907</c:v>
+                  <c:v>1.1806582419740013</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1756565721957675</c:v>
+                  <c:v>1.1756484428071081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.171886032441448</c:v>
+                  <c:v>1.1719050487419902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1689617528470237</c:v>
+                  <c:v>1.1690017625283715</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.166627583983717</c:v>
+                  <c:v>1.1666843131017608</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1647212766198463</c:v>
+                  <c:v>1.164791635665039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1631350668556242</c:v>
+                  <c:v>1.1632167501501325</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.161794576757974</c:v>
+                  <c:v>1.1618858180010236</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1606468149181419</c:v>
+                  <c:v>1.1607462311298311</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1596530052285474</c:v>
+                  <c:v>1.1597594933221815</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1587841198237245</c:v>
+                  <c:v>1.1588967858554031</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1580179968898257</c:v>
+                  <c:v>1.1581361063332205</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1573374239612799</c:v>
+                  <c:v>1.1574603659307969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1567288293332683</c:v>
+                  <c:v>1.1568560903100105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1561813678019959</c:v>
+                  <c:v>1.1563125119865438</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1556862687325413</c:v>
+                  <c:v>1.1558209231152394</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1552363626482165</c:v>
+                  <c:v>1.1553742055000222</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1548257317981199</c:v>
+                  <c:v>1.1549664836828217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,82 +2261,82 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.6590459978763108</c:v>
+                  <c:v>3.8907420602517422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4223975306249876</c:v>
+                  <c:v>3.6273605869617551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1210880218224655</c:v>
+                  <c:v>3.2932200032369199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6106743697866679</c:v>
+                  <c:v>2.7307519114849885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9330926543476408</c:v>
+                  <c:v>1.9927190568289657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.528854404837479</c:v>
+                  <c:v>1.558535966999782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2663274699553588</c:v>
+                  <c:v>1.2797187543702964</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.083519950310037</c:v>
+                  <c:v>1.0873400674538896</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0150338484210872</c:v>
+                  <c:v>1.0158496814032907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0539730937727505</c:v>
+                  <c:v>1.0568559612390875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0988020693441951</c:v>
+                  <c:v>1.1039997439940099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1489535809957676</c:v>
+                  <c:v>1.1566710782460039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.203972303107961</c:v>
+                  <c:v>1.2143743652718517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2634693864615052</c:v>
+                  <c:v>1.2766801693611076</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3270934867213295</c:v>
+                  <c:v>1.3431947451192272</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3945118094201936</c:v>
+                  <c:v>1.4135403887478273</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4653976132678437</c:v>
+                  <c:v>1.4873427861455868</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5394220845388018</c:v>
+                  <c:v>1.56422311021852</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6162492971150435</c:v>
+                  <c:v>1.6437934773041134</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6955334284997405</c:v>
+                  <c:v>1.7256548577067832</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7769176699591986</c:v>
+                  <c:v>1.8093968191180647</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8600344308253411</c:v>
+                  <c:v>1.8945986527023992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9445065373866866</c:v>
+                  <c:v>1.9808315378708439</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0299491908408389</c:v>
+                  <c:v>2.0676614702732308</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1159724911389666</c:v>
+                  <c:v>2.1546527239957043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2021843629945894</c:v>
+                  <c:v>2.2413716526351668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,82 +2886,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.2059353211390567E-2</c:v>
+                  <c:v>1.2059355792058812E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2107192761995657E-2</c:v>
+                  <c:v>1.2107296087982597E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2187318955247543E-2</c:v>
+                  <c:v>1.2187964978855182E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.238888590743391E-2</c:v>
+                  <c:v>1.2393893226940667E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2908515352492692E-2</c:v>
+                  <c:v>1.2954746436670524E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3546588499853221E-2</c:v>
+                  <c:v>1.3721349867723526E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4277475447539722E-2</c:v>
+                  <c:v>1.4714724789456983E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5081559965179573E-2</c:v>
+                  <c:v>1.5934611970626747E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5942331647534887E-2</c:v>
+                  <c:v>1.7348037742870744E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6846675130245223E-2</c:v>
+                  <c:v>1.8898910020192811E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.778627391722987E-2</c:v>
+                  <c:v>2.0526410241976333E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8759718979044708E-2</c:v>
+                  <c:v>2.2179447288884175E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9775208533050367E-2</c:v>
+                  <c:v>2.3822244138618727E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0853680368474431E-2</c:v>
+                  <c:v>2.5433155772560379E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2031880691004677E-2</c:v>
+                  <c:v>2.7000738869591746E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3364019617955738E-2</c:v>
+                  <c:v>2.8519824487770958E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4918840475639321E-2</c:v>
+                  <c:v>2.9988651678256609E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.67658219074919E-2</c:v>
+                  <c:v>3.1407119925749391E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8941730482993252E-2</c:v>
+                  <c:v>3.277586665696261E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1396089352881809E-2</c:v>
+                  <c:v>3.4095853644128281E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3947356962223979E-2</c:v>
+                  <c:v>3.5368228399150312E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6324404400056597E-2</c:v>
+                  <c:v>3.6594314217659858E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8320119695326442E-2</c:v>
+                  <c:v>3.7775646902871808E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9920346276124327E-2</c:v>
+                  <c:v>3.8914016756582438E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1258506084948812E-2</c:v>
+                  <c:v>4.0011497725210433E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2474321382086427E-2</c:v>
+                  <c:v>4.107045801875861E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4072,82 +4074,82 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>838.70190850032748</c:v>
+                  <c:v>848.20051456414672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>838.09962608731962</c:v>
+                  <c:v>847.57655506390518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>837.16065767204338</c:v>
+                  <c:v>846.6046513861578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>834.90761610552829</c:v>
+                  <c:v>844.27611482970269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>829.32876242400255</c:v>
+                  <c:v>838.52544742542852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>822.660977095877</c:v>
+                  <c:v>831.67034926171004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>815.15987685011612</c:v>
+                  <c:v>823.97332479994463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>807.0204390419027</c:v>
+                  <c:v>815.63334728705547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>803.89927965553159</c:v>
+                  <c:v>812.39949538345866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>807.34985236993782</c:v>
+                  <c:v>815.86137919749967</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>809.94749807074277</c:v>
+                  <c:v>818.46746972345591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>811.97366610865731</c:v>
+                  <c:v>820.50018292998186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>813.59824937351027</c:v>
+                  <c:v>822.12998771702814</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>814.92987125176273</c:v>
+                  <c:v>823.46587203329557</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>816.04122087552594</c:v>
+                  <c:v>824.58076697761066</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>816.98277732426618</c:v>
+                  <c:v>825.52531852932464</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>817.79069032894631</c:v>
+                  <c:v>826.3357952636901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>818.49152782813326</c:v>
+                  <c:v>827.03885204028541</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>819.10525331015765</c:v>
+                  <c:v>827.65451738829506</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>819.64715794507993</c:v>
+                  <c:v>828.19813211490305</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>820.12915192117339</c:v>
+                  <c:v>828.68164494657719</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>820.56064993823475</c:v>
+                  <c:v>829.11450096006831</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>820.94919225730973</c:v>
+                  <c:v>829.5042646837345</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>821.3008890734377</c:v>
+                  <c:v>829.85706593266764</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>821.62074419486794</c:v>
+                  <c:v>830.17792454946891</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>821.91289461666406</c:v>
+                  <c:v>830.47099076115478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4640,82 +4642,82 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.81937733452615791</c:v>
+                  <c:v>0.81961707370511683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1237052923205804</c:v>
+                  <c:v>4.1297633384846524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3110289855037642</c:v>
+                  <c:v>8.341892775836687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.846534268689066</c:v>
+                  <c:v>17.039074868443109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.342622955856108</c:v>
+                  <c:v>35.730212671072017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.021157916412513</c:v>
+                  <c:v>56.419599829990041</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.493695380599092</c:v>
+                  <c:v>78.967200170021485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.467193698138104</c:v>
+                  <c:v>102.6081859719242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102.74696504047166</c:v>
+                  <c:v>126.23469020678986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118.23508091041251</c:v>
+                  <c:v>148.83128189969801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>132.92865197241386</c:v>
+                  <c:v>169.74486697274418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>146.92039526661807</c:v>
+                  <c:v>188.71052616498764</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>160.40167071311862</c:v>
+                  <c:v>205.74021787121583</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>173.66496493074359</c:v>
+                  <c:v>220.9924473512724</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>187.09774311486498</c:v>
+                  <c:v>234.67792576401183</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>201.15187114049081</c:v>
+                  <c:v>247.00725055440404</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>216.26327456433262</c:v>
+                  <c:v>258.168334320837</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>232.69276290680091</c:v>
+                  <c:v>268.32039731110211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250.2854148078772</c:v>
+                  <c:v>277.59556625180602</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>268.24364650507692</c:v>
+                  <c:v>286.10314703435182</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>285.16619689670932</c:v>
+                  <c:v>293.93424446402707</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>299.59908268895049</c:v>
+                  <c:v>301.1658132891734</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>310.86737184585337</c:v>
+                  <c:v>307.86389826503381</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>319.40913278396914</c:v>
+                  <c:v>314.0861023203114</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>326.24643799736418</c:v>
+                  <c:v>319.88341508548604</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>332.23566990834644</c:v>
+                  <c:v>325.30154580663759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5796,82 +5798,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.2077182981541317</c:v>
+                  <c:v>1.2073650388059531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2399727744470129</c:v>
+                  <c:v>0.23962075278703712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11906792789750065</c:v>
+                  <c:v>0.11862739387713434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8740687207055151E-2</c:v>
+                  <c:v>5.8076920703759985E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8814834594084415E-2</c:v>
+                  <c:v>2.769580492313117E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9022586955677732E-2</c:v>
+                  <c:v>1.7539596221559636E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4239809734974395E-2</c:v>
+                  <c:v>1.2531494061703806E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1444537028166656E-2</c:v>
+                  <c:v>9.6442305321601685E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6312041879797541E-3</c:v>
+                  <c:v>7.839184287448531E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3695718088086651E-3</c:v>
+                  <c:v>6.6489852628354466E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4444221416264935E-3</c:v>
+                  <c:v>5.8297904239949464E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7354637741356719E-3</c:v>
+                  <c:v>5.2438887226397921E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1693684086986658E-3</c:v>
+                  <c:v>4.8098374262412367E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6981959510062187E-3</c:v>
+                  <c:v>4.4778770128150371E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2890910575680685E-3</c:v>
+                  <c:v>4.216745127511916E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9195515527113752E-3</c:v>
+                  <c:v>4.0062670135346612E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5757977261443299E-3</c:v>
+                  <c:v>3.833068848676886E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.2527192837378859E-3</c:v>
+                  <c:v>3.6880423922920863E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9537941144497536E-3</c:v>
+                  <c:v>3.5648155817530531E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.6890976278212461E-3</c:v>
+                  <c:v>3.4588120062908063E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4701763770354486E-3</c:v>
+                  <c:v>3.366661144925251E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3030041050806486E-3</c:v>
+                  <c:v>3.28582115344489E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1832771452473037E-3</c:v>
+                  <c:v>3.2143327151275569E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0981487328644915E-3</c:v>
+                  <c:v>3.150655163311904E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0332193236328763E-3</c:v>
+                  <c:v>3.0935551933367481E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9785393009516222E-3</c:v>
+                  <c:v>3.0420298112822813E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11176,25 +11178,25 @@
   </sheetPr>
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
-    <col min="22" max="32" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -11203,36 +11205,36 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.10</v>
+        <v>7.14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="19">
         <f>gamma_oil_*1000</f>
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -11248,7 +11250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -11264,7 +11266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -11276,13 +11278,13 @@
       </c>
       <c r="E10" s="21">
         <f>Rsb_/gamma_oil_</f>
-        <v>91.954022988505741</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
@@ -11294,13 +11296,13 @@
       </c>
       <c r="E11" s="21">
         <f>Rsb_/gamma_oil_</f>
-        <v>91.954022988505741</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
@@ -11318,7 +11320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -11336,7 +11338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -11349,7 +11351,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
@@ -11362,13 +11364,13 @@
       <c r="E15" s="22"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="15" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,810;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.810;gamma_oil:0.880;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -11390,21 +11392,21 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:22" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:22" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>0</v>
       </c>
@@ -11439,7 +11441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13">
         <v>1</v>
       </c>
@@ -11452,15 +11454,15 @@
       </c>
       <c r="E24" s="17">
         <f>[1]!PVT_bo_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0376399914230205</v>
+        <v>1.0378096051911541</v>
       </c>
       <c r="F24" s="16">
         <f>[1]!PVT_mu_oil_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>3.6590459978763108</v>
+        <v>3.8907420602517422</v>
       </c>
       <c r="G24" s="18">
         <f>[1]!PVT_mu_gas_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.2059353211390567E-2</v>
+        <v>1.2059355792058812E-2</v>
       </c>
       <c r="H24" s="17">
         <f>[1]!PVT_mu_wat_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11468,7 +11470,7 @@
       </c>
       <c r="I24" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>0.81937733452615791</v>
+        <v>0.81961707370511683</v>
       </c>
       <c r="J24" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11476,14 +11478,14 @@
       </c>
       <c r="K24" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>838.70190850032748</v>
+        <v>848.20051456414672</v>
       </c>
       <c r="L24" s="23">
         <f>[1]!PVT_bg_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>1.2077182981541317</v>
+        <v>1.2073650388059531</v>
       </c>
     </row>
-    <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13">
         <v>5</v>
       </c>
@@ -11497,15 +11499,15 @@
       </c>
       <c r="E25" s="17">
         <f>[1]!PVT_bo_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0403048627533211</v>
+        <v>1.040471342938323</v>
       </c>
       <c r="F25" s="16">
         <f>[1]!PVT_mu_oil_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>3.4223975306249876</v>
+        <v>3.6273605869617551</v>
       </c>
       <c r="G25" s="18">
         <f>[1]!PVT_mu_gas_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.2107192761995657E-2</v>
+        <v>1.2107296087982597E-2</v>
       </c>
       <c r="H25" s="17">
         <f>[1]!PVT_mu_wat_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11513,7 +11515,7 @@
       </c>
       <c r="I25" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>4.1237052923205804</v>
+        <v>4.1297633384846524</v>
       </c>
       <c r="J25" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11521,14 +11523,14 @@
       </c>
       <c r="K25" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>838.09962608731962</v>
+        <v>847.57655506390518</v>
       </c>
       <c r="L25" s="23">
         <f>[1]!PVT_bg_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>0.2399727744470129</v>
+        <v>0.23962075278703712</v>
       </c>
     </row>
-    <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13">
         <v>10</v>
       </c>
@@ -11542,15 +11544,15 @@
       </c>
       <c r="E26" s="17">
         <f>[1]!PVT_bo_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0443981738928323</v>
+        <v>1.0445596544735256</v>
       </c>
       <c r="F26" s="16">
         <f>[1]!PVT_mu_oil_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>3.1210880218224655</v>
+        <v>3.2932200032369199</v>
       </c>
       <c r="G26" s="18">
         <f>[1]!PVT_mu_gas_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.2187318955247543E-2</v>
+        <v>1.2187964978855182E-2</v>
       </c>
       <c r="H26" s="17">
         <f>[1]!PVT_mu_wat_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11558,7 +11560,7 @@
       </c>
       <c r="I26" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>8.3110289855037642</v>
+        <v>8.341892775836687</v>
       </c>
       <c r="J26" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11566,14 +11568,14 @@
       </c>
       <c r="K26" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>837.16065767204338</v>
+        <v>846.6046513861578</v>
       </c>
       <c r="L26" s="23">
         <f>[1]!PVT_bg_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>0.11906792789750065</v>
+        <v>0.11862739387713434</v>
       </c>
     </row>
-    <row r="27" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <v>20</v>
       </c>
@@ -11587,15 +11589,15 @@
       </c>
       <c r="E27" s="17">
         <f>[1]!PVT_bo_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0539767147414263</v>
+        <v>1.0541257424000623</v>
       </c>
       <c r="F27" s="16">
         <f>[1]!PVT_mu_oil_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.6106743697866679</v>
+        <v>2.7307519114849885</v>
       </c>
       <c r="G27" s="18">
         <f>[1]!PVT_mu_gas_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.238888590743391E-2</v>
+        <v>1.2393893226940667E-2</v>
       </c>
       <c r="H27" s="17">
         <f>[1]!PVT_mu_wat_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11603,7 +11605,7 @@
       </c>
       <c r="I27" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>16.846534268689066</v>
+        <v>17.039074868443109</v>
       </c>
       <c r="J27" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11611,14 +11613,14 @@
       </c>
       <c r="K27" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>834.90761610552829</v>
+        <v>844.27611482970269</v>
       </c>
       <c r="L27" s="23">
         <f>[1]!PVT_bg_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>5.8740687207055151E-2</v>
+        <v>5.8076920703759985E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13">
         <v>40</v>
       </c>
@@ -11632,15 +11634,15 @@
       </c>
       <c r="E28" s="17">
         <f>[1]!PVT_bo_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0767454604846787</v>
+        <v>1.0768617493504566</v>
       </c>
       <c r="F28" s="16">
         <f>[1]!PVT_mu_oil_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.9330926543476408</v>
+        <v>1.9927190568289657</v>
       </c>
       <c r="G28" s="18">
         <f>[1]!PVT_mu_gas_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.2908515352492692E-2</v>
+        <v>1.2954746436670524E-2</v>
       </c>
       <c r="H28" s="17">
         <f>[1]!PVT_mu_wat_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11648,7 +11650,7 @@
       </c>
       <c r="I28" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>34.342622955856108</v>
+        <v>35.730212671072017</v>
       </c>
       <c r="J28" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11656,14 +11658,14 @@
       </c>
       <c r="K28" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>829.32876242400255</v>
+        <v>838.52544742542852</v>
       </c>
       <c r="L28" s="23">
         <f>[1]!PVT_bg_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>2.8814834594084415E-2</v>
+        <v>2.769580492313117E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13">
         <v>60</v>
       </c>
@@ -11673,19 +11675,19 @@
       </c>
       <c r="D29" s="16">
         <f>[1]!PVT_rs_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>37.830173339018913</v>
+        <v>37.83017333901892</v>
       </c>
       <c r="E29" s="17">
         <f>[1]!PVT_bo_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1030496093855067</v>
+        <v>1.1031244173328194</v>
       </c>
       <c r="F29" s="16">
         <f>[1]!PVT_mu_oil_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.528854404837479</v>
+        <v>1.558535966999782</v>
       </c>
       <c r="G29" s="18">
         <f>[1]!PVT_mu_gas_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.3546588499853221E-2</v>
+        <v>1.3721349867723526E-2</v>
       </c>
       <c r="H29" s="17">
         <f>[1]!PVT_mu_wat_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11693,7 +11695,7 @@
       </c>
       <c r="I29" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>52.021157916412513</v>
+        <v>56.419599829990041</v>
       </c>
       <c r="J29" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11701,14 +11703,14 @@
       </c>
       <c r="K29" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>822.660977095877</v>
+        <v>831.67034926171004</v>
       </c>
       <c r="L29" s="23">
         <f>[1]!PVT_bg_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>1.9022586955677732E-2</v>
+        <v>1.7539596221559636E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13">
         <v>80</v>
       </c>
@@ -11722,15 +11724,15 @@
       </c>
       <c r="E30" s="17">
         <f>[1]!PVT_bo_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1322091794660498</v>
+        <v>1.1322350702659287</v>
       </c>
       <c r="F30" s="16">
         <f>[1]!PVT_mu_oil_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.2663274699553588</v>
+        <v>1.2797187543702964</v>
       </c>
       <c r="G30" s="18">
         <f>[1]!PVT_mu_gas_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.4277475447539722E-2</v>
+        <v>1.4714724789456983E-2</v>
       </c>
       <c r="H30" s="17">
         <f>[1]!PVT_mu_wat_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11738,7 +11740,7 @@
       </c>
       <c r="I30" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>69.493695380599092</v>
+        <v>78.967200170021485</v>
       </c>
       <c r="J30" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11746,14 +11748,14 @@
       </c>
       <c r="K30" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>815.15987685011612</v>
+        <v>823.97332479994463</v>
       </c>
       <c r="L30" s="23">
         <f>[1]!PVT_bg_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>1.4239809734974395E-2</v>
+        <v>1.2531494061703806E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13">
         <v>100</v>
       </c>
@@ -11767,15 +11769,15 @@
       </c>
       <c r="E31" s="17">
         <f>[1]!PVT_bo_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1638439565928362</v>
+        <v>1.1638144320400581</v>
       </c>
       <c r="F31" s="16">
         <f>[1]!PVT_mu_oil_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.083519950310037</v>
+        <v>1.0873400674538896</v>
       </c>
       <c r="G31" s="18">
         <f>[1]!PVT_mu_gas_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.5081559965179573E-2</v>
+        <v>1.5934611970626747E-2</v>
       </c>
       <c r="H31" s="17">
         <f>[1]!PVT_mu_wat_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11783,7 +11785,7 @@
       </c>
       <c r="I31" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>86.467193698138104</v>
+        <v>102.6081859719242</v>
       </c>
       <c r="J31" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11791,14 +11793,14 @@
       </c>
       <c r="K31" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>807.0204390419027</v>
+        <v>815.63334728705547</v>
       </c>
       <c r="L31" s="23">
         <f>[1]!PVT_bg_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>1.1444537028166656E-2</v>
+        <v>9.6442305321601685E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13">
         <v>120</v>
       </c>
@@ -11812,15 +11814,15 @@
       </c>
       <c r="E32" s="17">
         <f>[1]!PVT_bo_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1807028368114907</v>
+        <v>1.1806582419740013</v>
       </c>
       <c r="F32" s="16">
         <f>[1]!PVT_mu_oil_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0150338484210872</v>
+        <v>1.0158496814032907</v>
       </c>
       <c r="G32" s="18">
         <f>[1]!PVT_mu_gas_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.5942331647534887E-2</v>
+        <v>1.7348037742870744E-2</v>
       </c>
       <c r="H32" s="17">
         <f>[1]!PVT_mu_wat_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11828,7 +11830,7 @@
       </c>
       <c r="I32" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>102.74696504047166</v>
+        <v>126.23469020678986</v>
       </c>
       <c r="J32" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11836,14 +11838,14 @@
       </c>
       <c r="K32" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>803.89927965553159</v>
+        <v>812.39949538345866</v>
       </c>
       <c r="L32" s="23">
         <f>[1]!PVT_bg_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>9.6312041879797541E-3</v>
+        <v>7.839184287448531E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13">
         <v>140</v>
       </c>
@@ -11857,15 +11859,15 @@
       </c>
       <c r="E33" s="17">
         <f>[1]!PVT_bo_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1756565721957675</v>
+        <v>1.1756484428071081</v>
       </c>
       <c r="F33" s="16">
         <f>[1]!PVT_mu_oil_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0539730937727505</v>
+        <v>1.0568559612390875</v>
       </c>
       <c r="G33" s="18">
         <f>[1]!PVT_mu_gas_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.6846675130245223E-2</v>
+        <v>1.8898910020192811E-2</v>
       </c>
       <c r="H33" s="17">
         <f>[1]!PVT_mu_wat_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11873,7 +11875,7 @@
       </c>
       <c r="I33" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>118.23508091041251</v>
+        <v>148.83128189969801</v>
       </c>
       <c r="J33" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11881,14 +11883,14 @@
       </c>
       <c r="K33" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>807.34985236993782</v>
+        <v>815.86137919749967</v>
       </c>
       <c r="L33" s="23">
         <f>[1]!PVT_bg_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>8.3695718088086651E-3</v>
+        <v>6.6489852628354466E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13">
         <v>160</v>
       </c>
@@ -11902,15 +11904,15 @@
       </c>
       <c r="E34" s="17">
         <f>[1]!PVT_bo_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.171886032441448</v>
+        <v>1.1719050487419902</v>
       </c>
       <c r="F34" s="16">
         <f>[1]!PVT_mu_oil_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0988020693441951</v>
+        <v>1.1039997439940099</v>
       </c>
       <c r="G34" s="18">
         <f>[1]!PVT_mu_gas_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.778627391722987E-2</v>
+        <v>2.0526410241976333E-2</v>
       </c>
       <c r="H34" s="17">
         <f>[1]!PVT_mu_wat_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11918,7 +11920,7 @@
       </c>
       <c r="I34" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>132.92865197241386</v>
+        <v>169.74486697274418</v>
       </c>
       <c r="J34" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11926,14 +11928,14 @@
       </c>
       <c r="K34" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>809.94749807074277</v>
+        <v>818.46746972345591</v>
       </c>
       <c r="L34" s="23">
         <f>[1]!PVT_bg_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>7.4444221416264935E-3</v>
+        <v>5.8297904239949464E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13">
         <v>180</v>
       </c>
@@ -11947,15 +11949,15 @@
       </c>
       <c r="E35" s="17">
         <f>[1]!PVT_bo_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1689617528470237</v>
+        <v>1.1690017625283715</v>
       </c>
       <c r="F35" s="16">
         <f>[1]!PVT_mu_oil_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1489535809957676</v>
+        <v>1.1566710782460039</v>
       </c>
       <c r="G35" s="18">
         <f>[1]!PVT_mu_gas_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.8759718979044708E-2</v>
+        <v>2.2179447288884175E-2</v>
       </c>
       <c r="H35" s="17">
         <f>[1]!PVT_mu_wat_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11963,7 +11965,7 @@
       </c>
       <c r="I35" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>146.92039526661807</v>
+        <v>188.71052616498764</v>
       </c>
       <c r="J35" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -11971,14 +11973,14 @@
       </c>
       <c r="K35" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>811.97366610865731</v>
+        <v>820.50018292998186</v>
       </c>
       <c r="L35" s="23">
         <f>[1]!PVT_bg_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>6.7354637741356719E-3</v>
+        <v>5.2438887226397921E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13">
         <v>200</v>
       </c>
@@ -11992,15 +11994,15 @@
       </c>
       <c r="E36" s="17">
         <f>[1]!PVT_bo_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.166627583983717</v>
+        <v>1.1666843131017608</v>
       </c>
       <c r="F36" s="16">
         <f>[1]!PVT_mu_oil_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.203972303107961</v>
+        <v>1.2143743652718517</v>
       </c>
       <c r="G36" s="18">
         <f>[1]!PVT_mu_gas_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.9775208533050367E-2</v>
+        <v>2.3822244138618727E-2</v>
       </c>
       <c r="H36" s="17">
         <f>[1]!PVT_mu_wat_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12008,7 +12010,7 @@
       </c>
       <c r="I36" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>160.40167071311862</v>
+        <v>205.74021787121583</v>
       </c>
       <c r="J36" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12016,14 +12018,14 @@
       </c>
       <c r="K36" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>813.59824937351027</v>
+        <v>822.12998771702814</v>
       </c>
       <c r="L36" s="23">
         <f>[1]!PVT_bg_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>6.1693684086986658E-3</v>
+        <v>4.8098374262412367E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>220</v>
       </c>
@@ -12037,15 +12039,15 @@
       </c>
       <c r="E37" s="17">
         <f>[1]!PVT_bo_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1647212766198463</v>
+        <v>1.164791635665039</v>
       </c>
       <c r="F37" s="16">
         <f>[1]!PVT_mu_oil_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.2634693864615052</v>
+        <v>1.2766801693611076</v>
       </c>
       <c r="G37" s="18">
         <f>[1]!PVT_mu_gas_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.0853680368474431E-2</v>
+        <v>2.5433155772560379E-2</v>
       </c>
       <c r="H37" s="17">
         <f>[1]!PVT_mu_wat_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12053,7 +12055,7 @@
       </c>
       <c r="I37" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>173.66496493074359</v>
+        <v>220.9924473512724</v>
       </c>
       <c r="J37" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12061,14 +12063,14 @@
       </c>
       <c r="K37" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>814.92987125176273</v>
+        <v>823.46587203329557</v>
       </c>
       <c r="L37" s="23">
         <f>[1]!PVT_bg_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>5.6981959510062187E-3</v>
+        <v>4.4778770128150371E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>240</v>
       </c>
@@ -12082,15 +12084,15 @@
       </c>
       <c r="E38" s="17">
         <f>[1]!PVT_bo_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1631350668556242</v>
+        <v>1.1632167501501325</v>
       </c>
       <c r="F38" s="16">
         <f>[1]!PVT_mu_oil_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.3270934867213295</v>
+        <v>1.3431947451192272</v>
       </c>
       <c r="G38" s="18">
         <f>[1]!PVT_mu_gas_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.2031880691004677E-2</v>
+        <v>2.7000738869591746E-2</v>
       </c>
       <c r="H38" s="17">
         <f>[1]!PVT_mu_wat_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12098,7 +12100,7 @@
       </c>
       <c r="I38" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>187.09774311486498</v>
+        <v>234.67792576401183</v>
       </c>
       <c r="J38" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12106,14 +12108,14 @@
       </c>
       <c r="K38" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>816.04122087552594</v>
+        <v>824.58076697761066</v>
       </c>
       <c r="L38" s="23">
         <f>[1]!PVT_bg_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>5.2890910575680685E-3</v>
+        <v>4.216745127511916E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
         <v>260</v>
       </c>
@@ -12127,15 +12129,15 @@
       </c>
       <c r="E39" s="17">
         <f>[1]!PVT_bo_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.161794576757974</v>
+        <v>1.1618858180010236</v>
       </c>
       <c r="F39" s="16">
         <f>[1]!PVT_mu_oil_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.3945118094201936</v>
+        <v>1.4135403887478273</v>
       </c>
       <c r="G39" s="18">
         <f>[1]!PVT_mu_gas_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.3364019617955738E-2</v>
+        <v>2.8519824487770958E-2</v>
       </c>
       <c r="H39" s="17">
         <f>[1]!PVT_mu_wat_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12143,7 +12145,7 @@
       </c>
       <c r="I39" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>201.15187114049081</v>
+        <v>247.00725055440404</v>
       </c>
       <c r="J39" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12151,14 +12153,14 @@
       </c>
       <c r="K39" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>816.98277732426618</v>
+        <v>825.52531852932464</v>
       </c>
       <c r="L39" s="23">
         <f>[1]!PVT_bg_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>4.9195515527113752E-3</v>
+        <v>4.0062670135346612E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13">
         <v>280</v>
       </c>
@@ -12172,15 +12174,15 @@
       </c>
       <c r="E40" s="17">
         <f>[1]!PVT_bo_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1606468149181419</v>
+        <v>1.1607462311298311</v>
       </c>
       <c r="F40" s="16">
         <f>[1]!PVT_mu_oil_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.4653976132678437</v>
+        <v>1.4873427861455868</v>
       </c>
       <c r="G40" s="18">
         <f>[1]!PVT_mu_gas_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.4918840475639321E-2</v>
+        <v>2.9988651678256609E-2</v>
       </c>
       <c r="H40" s="17">
         <f>[1]!PVT_mu_wat_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12188,7 +12190,7 @@
       </c>
       <c r="I40" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>216.26327456433262</v>
+        <v>258.168334320837</v>
       </c>
       <c r="J40" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12196,14 +12198,14 @@
       </c>
       <c r="K40" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>817.79069032894631</v>
+        <v>826.3357952636901</v>
       </c>
       <c r="L40" s="23">
         <f>[1]!PVT_bg_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>4.5757977261443299E-3</v>
+        <v>3.833068848676886E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13">
         <v>300</v>
       </c>
@@ -12217,15 +12219,15 @@
       </c>
       <c r="E41" s="17">
         <f>[1]!PVT_bo_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1596530052285474</v>
+        <v>1.1597594933221815</v>
       </c>
       <c r="F41" s="16">
         <f>[1]!PVT_mu_oil_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.5394220845388018</v>
+        <v>1.56422311021852</v>
       </c>
       <c r="G41" s="18">
         <f>[1]!PVT_mu_gas_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.67658219074919E-2</v>
+        <v>3.1407119925749391E-2</v>
       </c>
       <c r="H41" s="17">
         <f>[1]!PVT_mu_wat_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12233,7 +12235,7 @@
       </c>
       <c r="I41" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>232.69276290680091</v>
+        <v>268.32039731110211</v>
       </c>
       <c r="J41" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12241,14 +12243,14 @@
       </c>
       <c r="K41" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>818.49152782813326</v>
+        <v>827.03885204028541</v>
       </c>
       <c r="L41" s="23">
         <f>[1]!PVT_bg_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>4.2527192837378859E-3</v>
+        <v>3.6880423922920863E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13">
         <v>320</v>
       </c>
@@ -12262,15 +12264,15 @@
       </c>
       <c r="E42" s="17">
         <f>[1]!PVT_bo_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1587841198237245</v>
+        <v>1.1588967858554031</v>
       </c>
       <c r="F42" s="16">
         <f>[1]!PVT_mu_oil_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.6162492971150435</v>
+        <v>1.6437934773041134</v>
       </c>
       <c r="G42" s="18">
         <f>[1]!PVT_mu_gas_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.8941730482993252E-2</v>
+        <v>3.277586665696261E-2</v>
       </c>
       <c r="H42" s="17">
         <f>[1]!PVT_mu_wat_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12278,7 +12280,7 @@
       </c>
       <c r="I42" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>250.2854148078772</v>
+        <v>277.59556625180602</v>
       </c>
       <c r="J42" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12286,14 +12288,14 @@
       </c>
       <c r="K42" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>819.10525331015765</v>
+        <v>827.65451738829506</v>
       </c>
       <c r="L42" s="23">
         <f>[1]!PVT_bg_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>3.9537941144497536E-3</v>
+        <v>3.5648155817530531E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13">
         <v>340</v>
       </c>
@@ -12307,15 +12309,15 @@
       </c>
       <c r="E43" s="17">
         <f>[1]!PVT_bo_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1580179968898257</v>
+        <v>1.1581361063332205</v>
       </c>
       <c r="F43" s="16">
         <f>[1]!PVT_mu_oil_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.6955334284997405</v>
+        <v>1.7256548577067832</v>
       </c>
       <c r="G43" s="18">
         <f>[1]!PVT_mu_gas_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>3.1396089352881809E-2</v>
+        <v>3.4095853644128281E-2</v>
       </c>
       <c r="H43" s="17">
         <f>[1]!PVT_mu_wat_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12323,7 +12325,7 @@
       </c>
       <c r="I43" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>268.24364650507692</v>
+        <v>286.10314703435182</v>
       </c>
       <c r="J43" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12331,14 +12333,14 @@
       </c>
       <c r="K43" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>819.64715794507993</v>
+        <v>828.19813211490305</v>
       </c>
       <c r="L43" s="23">
         <f>[1]!PVT_bg_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>3.6890976278212461E-3</v>
+        <v>3.4588120062908063E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13">
         <v>360</v>
       </c>
@@ -12352,15 +12354,15 @@
       </c>
       <c r="E44" s="17">
         <f>[1]!PVT_bo_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1573374239612799</v>
+        <v>1.1574603659307969</v>
       </c>
       <c r="F44" s="16">
         <f>[1]!PVT_mu_oil_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.7769176699591986</v>
+        <v>1.8093968191180647</v>
       </c>
       <c r="G44" s="18">
         <f>[1]!PVT_mu_gas_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>3.3947356962223979E-2</v>
+        <v>3.5368228399150312E-2</v>
       </c>
       <c r="H44" s="17">
         <f>[1]!PVT_mu_wat_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12368,7 +12370,7 @@
       </c>
       <c r="I44" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>285.16619689670932</v>
+        <v>293.93424446402707</v>
       </c>
       <c r="J44" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12376,14 +12378,14 @@
       </c>
       <c r="K44" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>820.12915192117339</v>
+        <v>828.68164494657719</v>
       </c>
       <c r="L44" s="23">
         <f>[1]!PVT_bg_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>3.4701763770354486E-3</v>
+        <v>3.366661144925251E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13">
         <v>380</v>
       </c>
@@ -12397,15 +12399,15 @@
       </c>
       <c r="E45" s="17">
         <f>[1]!PVT_bo_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1567288293332683</v>
+        <v>1.1568560903100105</v>
       </c>
       <c r="F45" s="16">
         <f>[1]!PVT_mu_oil_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.8600344308253411</v>
+        <v>1.8945986527023992</v>
       </c>
       <c r="G45" s="18">
         <f>[1]!PVT_mu_gas_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>3.6324404400056597E-2</v>
+        <v>3.6594314217659858E-2</v>
       </c>
       <c r="H45" s="17">
         <f>[1]!PVT_mu_wat_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12413,7 +12415,7 @@
       </c>
       <c r="I45" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>299.59908268895049</v>
+        <v>301.1658132891734</v>
       </c>
       <c r="J45" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12421,14 +12423,14 @@
       </c>
       <c r="K45" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>820.56064993823475</v>
+        <v>829.11450096006831</v>
       </c>
       <c r="L45" s="23">
         <f>[1]!PVT_bg_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>3.3030041050806486E-3</v>
+        <v>3.28582115344489E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13">
         <v>400</v>
       </c>
@@ -12442,15 +12444,15 @@
       </c>
       <c r="E46" s="17">
         <f>[1]!PVT_bo_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1561813678019959</v>
+        <v>1.1563125119865438</v>
       </c>
       <c r="F46" s="16">
         <f>[1]!PVT_mu_oil_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.9445065373866866</v>
+        <v>1.9808315378708439</v>
       </c>
       <c r="G46" s="18">
         <f>[1]!PVT_mu_gas_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>3.8320119695326442E-2</v>
+        <v>3.7775646902871808E-2</v>
       </c>
       <c r="H46" s="17">
         <f>[1]!PVT_mu_wat_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12458,7 +12460,7 @@
       </c>
       <c r="I46" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>310.86737184585337</v>
+        <v>307.86389826503381</v>
       </c>
       <c r="J46" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12466,14 +12468,14 @@
       </c>
       <c r="K46" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>820.94919225730973</v>
+        <v>829.5042646837345</v>
       </c>
       <c r="L46" s="23">
         <f>[1]!PVT_bg_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>3.1832771452473037E-3</v>
+        <v>3.2143327151275569E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13">
         <v>420</v>
       </c>
@@ -12487,15 +12489,15 @@
       </c>
       <c r="E47" s="17">
         <f>[1]!PVT_bo_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1556862687325413</v>
+        <v>1.1558209231152394</v>
       </c>
       <c r="F47" s="16">
         <f>[1]!PVT_mu_oil_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.0299491908408389</v>
+        <v>2.0676614702732308</v>
       </c>
       <c r="G47" s="18">
         <f>[1]!PVT_mu_gas_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>3.9920346276124327E-2</v>
+        <v>3.8914016756582438E-2</v>
       </c>
       <c r="H47" s="17">
         <f>[1]!PVT_mu_wat_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12503,7 +12505,7 @@
       </c>
       <c r="I47" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>319.40913278396914</v>
+        <v>314.0861023203114</v>
       </c>
       <c r="J47" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12511,14 +12513,14 @@
       </c>
       <c r="K47" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>821.3008890734377</v>
+        <v>829.85706593266764</v>
       </c>
       <c r="L47" s="23">
         <f>[1]!PVT_bg_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>3.0981487328644915E-3</v>
+        <v>3.150655163311904E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13">
         <v>440</v>
       </c>
@@ -12532,15 +12534,15 @@
       </c>
       <c r="E48" s="17">
         <f>[1]!PVT_bo_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1552363626482165</v>
+        <v>1.1553742055000222</v>
       </c>
       <c r="F48" s="16">
         <f>[1]!PVT_mu_oil_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.1159724911389666</v>
+        <v>2.1546527239957043</v>
       </c>
       <c r="G48" s="18">
         <f>[1]!PVT_mu_gas_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>4.1258506084948812E-2</v>
+        <v>4.0011497725210433E-2</v>
       </c>
       <c r="H48" s="17">
         <f>[1]!PVT_mu_wat_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12548,7 +12550,7 @@
       </c>
       <c r="I48" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>326.24643799736418</v>
+        <v>319.88341508548604</v>
       </c>
       <c r="J48" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12556,14 +12558,14 @@
       </c>
       <c r="K48" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>821.62074419486794</v>
+        <v>830.17792454946891</v>
       </c>
       <c r="L48" s="23">
         <f>[1]!PVT_bg_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>3.0332193236328763E-3</v>
+        <v>3.0935551933367481E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13">
         <v>460</v>
       </c>
@@ -12577,15 +12579,15 @@
       </c>
       <c r="E49" s="17">
         <f>[1]!PVT_bo_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1548257317981199</v>
+        <v>1.1549664836828217</v>
       </c>
       <c r="F49" s="16">
         <f>[1]!PVT_mu_oil_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.2021843629945894</v>
+        <v>2.2413716526351668</v>
       </c>
       <c r="G49" s="18">
         <f>[1]!PVT_mu_gas_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>4.2474321382086427E-2</v>
+        <v>4.107045801875861E-2</v>
       </c>
       <c r="H49" s="17">
         <f>[1]!PVT_mu_wat_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12593,7 +12595,7 @@
       </c>
       <c r="I49" s="16">
         <f>[1]!PVT_rho_gas_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>332.23566990834644</v>
+        <v>325.30154580663759</v>
       </c>
       <c r="J49" s="16">
         <f>[1]!PVT_rho_wat_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -12601,20 +12603,20 @@
       </c>
       <c r="K49" s="16">
         <f>[1]!PVT_rho_oil_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>821.91289461666406</v>
+        <v>830.47099076115478</v>
       </c>
       <c r="L49" s="23">
         <f>[1]!PVT_bg_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
-        <v>2.9785393009516222E-3</v>
+        <v>3.0420298112822813E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K108" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K119" s="3"/>
     </row>
   </sheetData>

--- a/exercises/ex010.PVT.xlsx
+++ b/exercises/ex010.PVT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91A4E37-596B-4242-9E6A-8C522EE2E01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14EE34-0C47-44F3-87EC-00798413E215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="180" windowWidth="31905" windowHeight="18330" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="112" r:id="rId1"/>
@@ -11179,7 +11179,7 @@
   <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
